--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/15/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/15/seed2/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.758000000000001</v>
+        <v>-7.712000000000001</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.709999999999999</v>
+        <v>-7.542</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.156000000000001</v>
+        <v>-8.1</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -828,7 +828,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.888</v>
+        <v>-7.874</v>
       </c>
       <c r="E23" t="n">
         <v>17.37</v>
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.613999999999999</v>
+        <v>-8.229000000000001</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.197999999999999</v>
+        <v>-8.238</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.818000000000001</v>
+        <v>-7.37</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -1338,7 +1338,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-7.124</v>
+        <v>-7.507000000000001</v>
       </c>
       <c r="E53" t="n">
         <v>18.53</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-7.968000000000001</v>
+        <v>-7.904000000000001</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1440,7 +1440,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-8.198</v>
+        <v>-8.061</v>
       </c>
       <c r="E59" t="n">
         <v>16.47</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-6.862</v>
+        <v>-7.221000000000001</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-7.718000000000001</v>
+        <v>-7.885</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.521999999999998</v>
+        <v>-8.199</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1984,7 +1984,7 @@
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.232</v>
+        <v>-6.787999999999999</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2018,7 +2018,7 @@
         <v>-11.3</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.692</v>
+        <v>-7.595000000000001</v>
       </c>
       <c r="E93" t="n">
         <v>18.32</v>
